--- a/Data/afdw/nucella_afdw.xlsx
+++ b/Data/afdw/nucella_afdw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b051fb7dc4dbd1ad/Desktop/mytilus_nucella/Data/afdw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="606" documentId="8_{50610305-04B0-4984-9569-E250B3ABD9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8922B697-89C3-4726-B41B-943FB435638B}"/>
+  <xr:revisionPtr revIDLastSave="668" documentId="8_{50610305-04B0-4984-9569-E250B3ABD9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAEC4B10-A7D9-411E-8798-E77014589A76}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1044FC5-7462-47C5-A003-74AA289B934E}"/>
   </bookViews>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86842FAF-CA76-4611-B7E7-D056C8EF8145}">
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -788,6 +788,13 @@
       <c r="D2">
         <v>1.0146999999999999</v>
       </c>
+      <c r="E2">
+        <v>0.97529999999999994</v>
+      </c>
+      <c r="F2">
+        <f>D2-E2</f>
+        <v>3.9399999999999991E-2</v>
+      </c>
       <c r="G2">
         <v>0.96440000000000003</v>
       </c>
@@ -817,6 +824,13 @@
       <c r="D3">
         <v>1.0235000000000001</v>
       </c>
+      <c r="E3">
+        <v>0.97150000000000003</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">D3-E3</f>
+        <v>5.2000000000000046E-2</v>
+      </c>
       <c r="G3">
         <v>0.98050000000000004</v>
       </c>
@@ -846,6 +860,13 @@
       <c r="D4">
         <v>1.0633999999999999</v>
       </c>
+      <c r="E4">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>7.8999999999999848E-2</v>
+      </c>
       <c r="G4">
         <v>0.9627</v>
       </c>
@@ -878,6 +899,10 @@
       <c r="E5">
         <v>0.98319999999999996</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>3.2500000000000084E-2</v>
+      </c>
       <c r="G5">
         <v>0.96579999999999999</v>
       </c>
@@ -910,6 +935,10 @@
       <c r="E6">
         <v>0.98750000000000004</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3.7800000000000056E-2</v>
+      </c>
       <c r="G6">
         <v>0.98119999999999996</v>
       </c>
@@ -939,6 +968,13 @@
       <c r="D7">
         <v>1.0081</v>
       </c>
+      <c r="E7">
+        <v>0.96379999999999999</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>4.4300000000000006E-2</v>
+      </c>
       <c r="G7">
         <v>0.97719999999999996</v>
       </c>
@@ -968,6 +1004,13 @@
       <c r="D8">
         <v>1.0357000000000001</v>
       </c>
+      <c r="E8">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>6.8600000000000105E-2</v>
+      </c>
       <c r="G8">
         <v>0.95599999999999996</v>
       </c>
@@ -1000,6 +1043,10 @@
       <c r="E9">
         <v>0.97209999999999996</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>5.7600000000000096E-2</v>
+      </c>
       <c r="G9">
         <v>0.96450000000000002</v>
       </c>
@@ -1029,6 +1076,13 @@
       <c r="D10">
         <v>0.99409999999999998</v>
       </c>
+      <c r="E10">
+        <v>0.96140000000000003</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>3.2699999999999951E-2</v>
+      </c>
       <c r="G10">
         <v>0.95930000000000004</v>
       </c>
@@ -1058,6 +1112,13 @@
       <c r="D11">
         <v>0.99870000000000003</v>
       </c>
+      <c r="E11">
+        <v>0.97240000000000004</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>2.629999999999999E-2</v>
+      </c>
       <c r="G11">
         <v>0.96209999999999996</v>
       </c>
@@ -1087,6 +1148,13 @@
       <c r="D12">
         <v>1.0157</v>
       </c>
+      <c r="E12">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>5.0700000000000078E-2</v>
+      </c>
       <c r="G12">
         <v>0.9607</v>
       </c>
@@ -1119,6 +1187,10 @@
       <c r="E13">
         <v>0.97989999999999999</v>
       </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>2.7800000000000047E-2</v>
+      </c>
       <c r="G13">
         <v>0.96460000000000001</v>
       </c>
@@ -1151,6 +1223,10 @@
       <c r="E14">
         <v>0.98080000000000001</v>
       </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>5.05000000000001E-2</v>
+      </c>
       <c r="G14">
         <v>0.97489999999999999</v>
       </c>
@@ -1177,9 +1253,6 @@
       <c r="B15" t="s">
         <v>76</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -1194,6 +1267,10 @@
       <c r="E16">
         <v>0.97799999999999998</v>
       </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>3.4699999999999953E-2</v>
+      </c>
       <c r="G16">
         <v>0.9677</v>
       </c>
@@ -1220,9 +1297,6 @@
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
@@ -1237,6 +1311,10 @@
       <c r="E18">
         <v>0.96209999999999996</v>
       </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>5.1400000000000112E-2</v>
+      </c>
       <c r="G18">
         <v>0.96099999999999997</v>
       </c>
@@ -1266,6 +1344,13 @@
       <c r="D19">
         <v>1.0346</v>
       </c>
+      <c r="E19">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>5.9599999999999986E-2</v>
+      </c>
       <c r="G19">
         <v>0.9738</v>
       </c>
@@ -1298,6 +1383,10 @@
       <c r="E20">
         <v>0.97319999999999995</v>
       </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>7.6500000000000123E-2</v>
+      </c>
       <c r="G20">
         <v>0.98499999999999999</v>
       </c>
@@ -1324,9 +1413,6 @@
       <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
@@ -1341,6 +1427,10 @@
       <c r="E22">
         <v>0.97719999999999996</v>
       </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>4.7399999999999998E-2</v>
+      </c>
       <c r="G22">
         <v>0.96399999999999997</v>
       </c>
@@ -1370,6 +1460,13 @@
       <c r="D23">
         <v>1.0422</v>
       </c>
+      <c r="E23">
+        <v>0.98060000000000003</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>6.1599999999999988E-2</v>
+      </c>
       <c r="G23">
         <v>0.96970000000000001</v>
       </c>
@@ -1399,6 +1496,13 @@
       <c r="D24">
         <v>1.0125</v>
       </c>
+      <c r="E24">
+        <v>0.9708</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>4.1699999999999959E-2</v>
+      </c>
       <c r="G24">
         <v>0.96879999999999999</v>
       </c>
@@ -1431,6 +1535,10 @@
       <c r="E25">
         <v>0.97619999999999996</v>
       </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>2.2700000000000053E-2</v>
+      </c>
       <c r="G25">
         <v>0.98399999999999999</v>
       </c>
@@ -1460,6 +1568,13 @@
       <c r="D26">
         <v>1.0437000000000001</v>
       </c>
+      <c r="E26">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>6.4600000000000102E-2</v>
+      </c>
       <c r="G26">
         <v>0.97009999999999996</v>
       </c>
@@ -1489,6 +1604,13 @@
       <c r="D27">
         <v>1.0056</v>
       </c>
+      <c r="E27">
+        <v>0.9647</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>4.0900000000000047E-2</v>
+      </c>
       <c r="G27">
         <v>0.96050000000000002</v>
       </c>
@@ -1521,6 +1643,10 @@
       <c r="E28">
         <v>0.97689999999999999</v>
       </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>6.3999999999999946E-2</v>
+      </c>
       <c r="G28">
         <v>0.96960000000000002</v>
       </c>
@@ -1553,6 +1679,10 @@
       <c r="E29">
         <v>0.98109999999999997</v>
       </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>5.3400000000000003E-2</v>
+      </c>
       <c r="G29">
         <v>0.97599999999999998</v>
       </c>
@@ -1585,6 +1715,10 @@
       <c r="E30">
         <v>0.97919999999999996</v>
       </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>6.4200000000000146E-2</v>
+      </c>
       <c r="G30">
         <v>0.97119999999999995</v>
       </c>
@@ -1617,6 +1751,10 @@
       <c r="E31">
         <v>0.96799999999999997</v>
       </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>5.3900000000000059E-2</v>
+      </c>
       <c r="G31">
         <v>0.96330000000000005</v>
       </c>
@@ -1649,6 +1787,10 @@
       <c r="E32">
         <v>0.97060000000000002</v>
       </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>4.2099999999999915E-2</v>
+      </c>
       <c r="G32">
         <v>0.96250000000000002</v>
       </c>
@@ -1681,6 +1823,10 @@
       <c r="E33">
         <v>0.9859</v>
       </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>4.0899999999999936E-2</v>
+      </c>
       <c r="G33">
         <v>0.97960000000000003</v>
       </c>
@@ -1707,9 +1853,6 @@
       <c r="B34" t="s">
         <v>63</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
@@ -1724,6 +1867,10 @@
       <c r="E35">
         <v>0.97719999999999996</v>
       </c>
+      <c r="F35">
+        <f>D35-E35</f>
+        <v>2.640000000000009E-2</v>
+      </c>
       <c r="G35">
         <v>0.98129999999999995</v>
       </c>
@@ -1753,6 +1900,13 @@
       <c r="D36">
         <v>1.0226999999999999</v>
       </c>
+      <c r="E36">
+        <v>0.9849</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>3.7799999999999945E-2</v>
+      </c>
       <c r="G36">
         <v>0.9798</v>
       </c>
@@ -1785,6 +1939,10 @@
       <c r="E37">
         <v>0.96609999999999996</v>
       </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>4.0399999999999991E-2</v>
+      </c>
       <c r="G37">
         <v>0.97299999999999998</v>
       </c>
@@ -1817,6 +1975,10 @@
       <c r="E38">
         <v>0.97809999999999997</v>
       </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>3.6599999999999966E-2</v>
+      </c>
       <c r="G38">
         <v>0.96760000000000002</v>
       </c>
@@ -1843,9 +2005,6 @@
       <c r="B39" t="s">
         <v>37</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
@@ -1860,6 +2019,10 @@
       <c r="E40">
         <v>0.96430000000000005</v>
       </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>3.6399999999999877E-2</v>
+      </c>
       <c r="G40">
         <v>0.96799999999999997</v>
       </c>
@@ -1892,6 +2055,10 @@
       <c r="E41">
         <v>0.97889999999999999</v>
       </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>5.3100000000000036E-2</v>
+      </c>
       <c r="G41">
         <v>0.95779999999999998</v>
       </c>
@@ -1918,9 +2085,6 @@
       <c r="B42" t="s">
         <v>38</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
@@ -1935,6 +2099,10 @@
       <c r="E43">
         <v>0.98019999999999996</v>
       </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>9.5600000000000129E-2</v>
+      </c>
       <c r="G43">
         <v>0.96819999999999995</v>
       </c>
@@ -1964,6 +2132,13 @@
       <c r="D44">
         <v>1.0248999999999999</v>
       </c>
+      <c r="E44">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>4.149999999999987E-2</v>
+      </c>
       <c r="G44">
         <v>0.98470000000000002</v>
       </c>
@@ -1996,6 +2171,10 @@
       <c r="E45">
         <v>0.97319999999999995</v>
       </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>6.7400000000000015E-2</v>
+      </c>
       <c r="G45">
         <v>0.96619999999999995</v>
       </c>
@@ -2025,6 +2204,13 @@
       <c r="D46">
         <v>1.0001</v>
       </c>
+      <c r="E46">
+        <v>0.96550000000000002</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>3.4599999999999964E-2</v>
+      </c>
       <c r="G46">
         <v>0.97160000000000002</v>
       </c>
@@ -2054,6 +2240,13 @@
       <c r="D47">
         <v>1.0623</v>
       </c>
+      <c r="E47">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>7.4500000000000011E-2</v>
+      </c>
       <c r="G47">
         <v>0.97609999999999997</v>
       </c>
@@ -2083,6 +2276,13 @@
       <c r="D48">
         <v>1.0546</v>
       </c>
+      <c r="E48">
+        <v>0.9677</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>8.6899999999999977E-2</v>
+      </c>
       <c r="G48">
         <v>0.9597</v>
       </c>
@@ -2109,9 +2309,6 @@
       <c r="B49" t="s">
         <v>78</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50">
@@ -2126,6 +2323,10 @@
       <c r="E50">
         <v>0.95589999999999997</v>
       </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>2.3900000000000032E-2</v>
+      </c>
       <c r="G50">
         <v>0.95520000000000005</v>
       </c>
@@ -2155,6 +2356,13 @@
       <c r="D51">
         <v>1.0324</v>
       </c>
+      <c r="E51">
+        <v>0.97009999999999996</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>6.2300000000000022E-2</v>
+      </c>
       <c r="G51">
         <v>0.96719999999999995</v>
       </c>
@@ -2187,6 +2395,10 @@
       <c r="E52">
         <v>0.97570000000000001</v>
       </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>3.4100000000000019E-2</v>
+      </c>
       <c r="G52">
         <v>0.96730000000000005</v>
       </c>
@@ -2219,6 +2431,10 @@
       <c r="E53">
         <v>0.98329999999999995</v>
       </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>5.4500000000000104E-2</v>
+      </c>
       <c r="G53">
         <v>0.95799999999999996</v>
       </c>
@@ -2245,9 +2461,6 @@
       <c r="B54" t="s">
         <v>29</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55">
@@ -2259,6 +2472,13 @@
       <c r="D55">
         <v>1.0032000000000001</v>
       </c>
+      <c r="E55">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>2.6600000000000068E-2</v>
+      </c>
       <c r="G55">
         <v>0.96879999999999999</v>
       </c>
@@ -2291,6 +2511,10 @@
       <c r="E56">
         <v>0.9667</v>
       </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>5.4500000000000104E-2</v>
+      </c>
       <c r="G56">
         <v>0.96299999999999997</v>
       </c>
@@ -2320,6 +2544,13 @@
       <c r="D57">
         <v>1.0055000000000001</v>
       </c>
+      <c r="E57">
+        <v>0.96930000000000005</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>3.620000000000001E-2</v>
+      </c>
       <c r="G57">
         <v>0.96079999999999999</v>
       </c>
@@ -2352,6 +2583,10 @@
       <c r="E58">
         <v>0.96399999999999997</v>
       </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>2.3299999999999987E-2</v>
+      </c>
       <c r="G58">
         <v>0.96679999999999999</v>
       </c>
@@ -2381,6 +2616,13 @@
       <c r="D59">
         <v>0.99350000000000005</v>
       </c>
+      <c r="E59">
+        <v>0.96909999999999996</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>2.4400000000000088E-2</v>
+      </c>
       <c r="G59">
         <v>0.98150000000000004</v>
       </c>
@@ -2410,6 +2652,13 @@
       <c r="D60">
         <v>1.0037</v>
       </c>
+      <c r="E60">
+        <v>0.97240000000000004</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>3.1299999999999994E-2</v>
+      </c>
       <c r="G60">
         <v>0.97899999999999998</v>
       </c>
@@ -2442,6 +2691,10 @@
       <c r="E61">
         <v>0.97450000000000003</v>
       </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>4.6299999999999897E-2</v>
+      </c>
       <c r="G61">
         <v>0.98119999999999996</v>
       </c>
@@ -2474,6 +2727,10 @@
       <c r="E62">
         <v>0.96240000000000003</v>
       </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>3.4299999999999997E-2</v>
+      </c>
       <c r="G62">
         <v>0.96189999999999998</v>
       </c>
@@ -2506,6 +2763,10 @@
       <c r="E63">
         <v>0.98470000000000002</v>
       </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>4.4099999999999917E-2</v>
+      </c>
       <c r="G63">
         <v>0.97119999999999995</v>
       </c>
@@ -2535,6 +2796,13 @@
       <c r="D64">
         <v>1.0175000000000001</v>
       </c>
+      <c r="E64">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>3.7300000000000111E-2</v>
+      </c>
       <c r="G64">
         <v>0.97729999999999995</v>
       </c>
@@ -2564,6 +2832,13 @@
       <c r="D65">
         <v>1.0129999999999999</v>
       </c>
+      <c r="E65">
+        <v>0.98109999999999997</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>3.1899999999999928E-2</v>
+      </c>
       <c r="G65">
         <v>0.95489999999999997</v>
       </c>
@@ -2593,6 +2868,13 @@
       <c r="D66">
         <v>1.0258</v>
       </c>
+      <c r="E66">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>5.3300000000000014E-2</v>
+      </c>
       <c r="G66">
         <v>0.96479999999999999</v>
       </c>
@@ -2625,6 +2907,10 @@
       <c r="E67">
         <v>0.97309999999999997</v>
       </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F93" si="1">D67-E67</f>
+        <v>3.4200000000000119E-2</v>
+      </c>
       <c r="G67">
         <v>0.97219999999999995</v>
       </c>
@@ -2651,9 +2937,6 @@
       <c r="B68" t="s">
         <v>24</v>
       </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69">
@@ -2665,6 +2948,13 @@
       <c r="D69">
         <v>1.0482</v>
       </c>
+      <c r="E69">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>7.8000000000000069E-2</v>
+      </c>
       <c r="G69">
         <v>0.96499999999999997</v>
       </c>
@@ -2691,9 +2981,6 @@
       <c r="B70" t="s">
         <v>35</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71">
@@ -2708,6 +2995,10 @@
       <c r="E71">
         <v>0.97089999999999999</v>
       </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>2.200000000000002E-2</v>
+      </c>
       <c r="G71">
         <v>0.96950000000000003</v>
       </c>
@@ -2737,6 +3028,13 @@
       <c r="D72">
         <v>1.0164</v>
       </c>
+      <c r="E72">
+        <v>0.97970000000000002</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>3.6699999999999955E-2</v>
+      </c>
       <c r="G72">
         <v>0.96960000000000002</v>
       </c>
@@ -2769,6 +3067,10 @@
       <c r="E73">
         <v>0.97570000000000001</v>
       </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>3.1600000000000072E-2</v>
+      </c>
       <c r="G73">
         <v>0.97770000000000001</v>
       </c>
@@ -2801,6 +3103,10 @@
       <c r="E74">
         <v>0.97729999999999995</v>
       </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>2.4300000000000099E-2</v>
+      </c>
       <c r="G74">
         <v>0.97960000000000003</v>
       </c>
@@ -2827,9 +3133,6 @@
       <c r="B75" t="s">
         <v>45</v>
       </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76">
@@ -2844,6 +3147,10 @@
       <c r="E76">
         <v>0.97860000000000003</v>
       </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>2.9699999999999949E-2</v>
+      </c>
       <c r="G76">
         <v>0.97199999999999998</v>
       </c>
@@ -2873,6 +3180,13 @@
       <c r="D77">
         <v>0.98939999999999995</v>
       </c>
+      <c r="E77">
+        <v>0.96630000000000005</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>2.3099999999999898E-2</v>
+      </c>
       <c r="G77">
         <v>0.97060000000000002</v>
       </c>
@@ -2905,6 +3219,10 @@
       <c r="E78">
         <v>0.96609999999999996</v>
       </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>5.2400000000000002E-2</v>
+      </c>
       <c r="G78">
         <v>0.97060000000000002</v>
       </c>
@@ -2937,6 +3255,10 @@
       <c r="E79">
         <v>0.9869</v>
       </c>
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>7.3100000000000054E-2</v>
+      </c>
       <c r="G79">
         <v>0.96060000000000001</v>
       </c>
@@ -2966,6 +3288,13 @@
       <c r="D80">
         <v>1.0199</v>
       </c>
+      <c r="E80">
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>4.8499999999999988E-2</v>
+      </c>
       <c r="G80">
         <v>0.96989999999999998</v>
       </c>
@@ -2998,6 +3327,10 @@
       <c r="E81">
         <v>0.97909999999999997</v>
       </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>4.4200000000000128E-2</v>
+      </c>
       <c r="G81">
         <v>0.96679999999999999</v>
       </c>
@@ -3030,6 +3363,10 @@
       <c r="E82">
         <v>0.97460000000000002</v>
       </c>
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>5.7499999999999996E-2</v>
+      </c>
       <c r="G82">
         <v>0.97499999999999998</v>
       </c>
@@ -3062,6 +3399,10 @@
       <c r="E83">
         <v>0.98099999999999998</v>
       </c>
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>4.9100000000000033E-2</v>
+      </c>
       <c r="G83">
         <v>0.96889999999999998</v>
       </c>
@@ -3091,6 +3432,13 @@
       <c r="D84">
         <v>0.9718</v>
       </c>
+      <c r="E84">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>1.100000000000001E-2</v>
+      </c>
       <c r="G84">
         <v>0.95789999999999997</v>
       </c>
@@ -3123,6 +3471,10 @@
       <c r="E85">
         <v>0.98819999999999997</v>
       </c>
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>3.3700000000000063E-2</v>
+      </c>
       <c r="G85">
         <v>0.97809999999999997</v>
       </c>
@@ -3155,6 +3507,10 @@
       <c r="E86">
         <v>0.96989999999999998</v>
       </c>
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>5.479999999999996E-2</v>
+      </c>
       <c r="G86">
         <v>0.96660000000000001</v>
       </c>
@@ -3187,6 +3543,10 @@
       <c r="E87">
         <v>0.96879999999999999</v>
       </c>
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>3.3299999999999996E-2</v>
+      </c>
       <c r="G87">
         <v>0.97389999999999999</v>
       </c>
@@ -3216,6 +3576,13 @@
       <c r="D88">
         <v>1.0248999999999999</v>
       </c>
+      <c r="E88">
+        <v>0.97309999999999997</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>5.1799999999999957E-2</v>
+      </c>
       <c r="G88">
         <v>0.96830000000000005</v>
       </c>
@@ -3248,6 +3615,10 @@
       <c r="E89">
         <v>0.97940000000000005</v>
       </c>
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>2.0599999999999952E-2</v>
+      </c>
       <c r="G89">
         <v>0.97729999999999995</v>
       </c>
@@ -3280,6 +3651,10 @@
       <c r="E90">
         <v>0.98029999999999995</v>
       </c>
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>4.4100000000000028E-2</v>
+      </c>
       <c r="G90">
         <v>0.97209999999999996</v>
       </c>
@@ -3309,6 +3684,13 @@
       <c r="D91">
         <v>1.0306</v>
       </c>
+      <c r="E91">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>5.699999999999994E-2</v>
+      </c>
       <c r="G91">
         <v>0.96650000000000003</v>
       </c>
@@ -3341,6 +3723,10 @@
       <c r="E92">
         <v>0.97389999999999999</v>
       </c>
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>2.4700000000000055E-2</v>
+      </c>
       <c r="G92">
         <v>0.9627</v>
       </c>
@@ -3372,6 +3758,10 @@
       </c>
       <c r="E93">
         <v>0.9718</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>6.0699999999999976E-2</v>
       </c>
       <c r="G93">
         <v>0.96719999999999995</v>
